--- a/data/trans_dic/P16A_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P16A_R-Dificultad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.1495889225529769</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.2452928124531233</v>
+        <v>0.2452928124531232</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07254508834049411</v>
+        <v>0.07304699447548234</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0630690875412564</v>
+        <v>0.06493904972281887</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06364478531740504</v>
+        <v>0.06377049789093085</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1737442650429142</v>
+        <v>0.170078596312674</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1445705672729458</v>
+        <v>0.1479368424758507</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2020875537101741</v>
+        <v>0.1980999566365066</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1902523338021326</v>
+        <v>0.1903364365718377</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2490681706885728</v>
+        <v>0.2454448571718827</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1238086022120344</v>
+        <v>0.1250753444663603</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1395289438047894</v>
+        <v>0.1398324113784907</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1346023944171474</v>
+        <v>0.1348655952651608</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2235889697406342</v>
+        <v>0.2229704417365387</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1202278990939586</v>
+        <v>0.1230374427334471</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1017234943492166</v>
+        <v>0.09864617892016181</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.09624133986040005</v>
+        <v>0.09553633381832376</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2426473444507951</v>
+        <v>0.2465937453240532</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1937644743694151</v>
+        <v>0.1965365843970068</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2513030472878585</v>
+        <v>0.249766412259517</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2378304376442771</v>
+        <v>0.2389528323290408</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3080054324139161</v>
+        <v>0.3073782811925884</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1586132290481755</v>
+        <v>0.161217894407185</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1729213492890398</v>
+        <v>0.1714209371356157</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1661375048765458</v>
+        <v>0.1645715412848495</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2695818825102153</v>
+        <v>0.2686330126098161</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02839475340191127</v>
+        <v>0.02720109490650151</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04467471263394204</v>
+        <v>0.04277664625616364</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0478677973138459</v>
+        <v>0.04834913099836158</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06692505432597246</v>
+        <v>0.06675944403873639</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.08056416578923031</v>
+        <v>0.08121343684312551</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1163370623165101</v>
+        <v>0.1191161457572338</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1104986935335469</v>
+        <v>0.1094298376815829</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1800560512662412</v>
+        <v>0.1778998935346179</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05803704677284682</v>
+        <v>0.0583349976592481</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.08879831446983392</v>
+        <v>0.08845534379742491</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.08720119085561288</v>
+        <v>0.08542176741158362</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1324784788638973</v>
+        <v>0.1319438065075432</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05094951639123693</v>
+        <v>0.0506565668958554</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0760478123230037</v>
+        <v>0.07596996706895523</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07971496514361948</v>
+        <v>0.08002852579858726</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.101778470474881</v>
+        <v>0.09856833267813961</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1197154329446619</v>
+        <v>0.1196170209472122</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.160739168722822</v>
+        <v>0.1619553248991341</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.15512809254688</v>
+        <v>0.1533856821709117</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2189301171737965</v>
+        <v>0.2198978123650658</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.07944377412729281</v>
+        <v>0.08052695725094584</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1154981822015378</v>
+        <v>0.1169343144085285</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1137984326895189</v>
+        <v>0.1135415243631218</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1585552976604257</v>
+        <v>0.158858190086092</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0246018874421984</v>
+        <v>0.02609823848312345</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04160271893810889</v>
+        <v>0.04064497605471933</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.032012931707713</v>
+        <v>0.03264323036542235</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05148410515299761</v>
+        <v>0.0512909901785059</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.0618402897915845</v>
+        <v>0.06205509882373338</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.09680258329902668</v>
+        <v>0.09748582222584677</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.08799695814471981</v>
+        <v>0.09151188764128608</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1268293277622952</v>
+        <v>0.1265416144886146</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04668282986319728</v>
+        <v>0.04585303553798747</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.07374832509300362</v>
+        <v>0.07431079949779588</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.06548755410811065</v>
+        <v>0.06472061347810662</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.09174313493302452</v>
+        <v>0.09248273528502098</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04749983641166209</v>
+        <v>0.04817690655977144</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07438603245734979</v>
+        <v>0.07286084103525578</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06083661256874871</v>
+        <v>0.06249341039911045</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07889232273061562</v>
+        <v>0.07769970755556281</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.09439974946499129</v>
+        <v>0.09447035521120023</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.140303125823388</v>
+        <v>0.1439788276196441</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1394460225409413</v>
+        <v>0.1400423297117422</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1624391456210485</v>
+        <v>0.1612709030322328</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.065419752336467</v>
+        <v>0.0645066730396488</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1014374782790147</v>
+        <v>0.1018223820934642</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.09409216203783791</v>
+        <v>0.09408428225976746</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1169945770232211</v>
+        <v>0.115712359974842</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.05161636250256817</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.05342371865336739</v>
+        <v>0.0534237186533674</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.08617824296688077</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03007597086687532</v>
+        <v>0.02983425310544051</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04792788516862861</v>
+        <v>0.0482940446890136</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03460413443550388</v>
+        <v>0.03455623658198303</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04162399405785309</v>
+        <v>0.04169559880000064</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05797640981453654</v>
+        <v>0.05764469416899264</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06992280843698323</v>
+        <v>0.06959502341062024</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06992602783579105</v>
+        <v>0.07173665464208763</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.09896381710916355</v>
+        <v>0.09810906611953459</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04770694304946504</v>
+        <v>0.04693603384890381</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.06427773196404815</v>
+        <v>0.06287005124152824</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.0575133102173964</v>
+        <v>0.05750216100953013</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.07220322925643033</v>
+        <v>0.07269411392693823</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07013645261497151</v>
+        <v>0.07039264752687978</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.09953300994709738</v>
+        <v>0.1017316577359337</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07411020341882492</v>
+        <v>0.07608947306516113</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0693968800652747</v>
+        <v>0.06885369150760244</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1166032232455625</v>
+        <v>0.1212059616993929</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1247732716415818</v>
+        <v>0.1222452972534606</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1223975978490125</v>
+        <v>0.121342409933851</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1325936760197872</v>
+        <v>0.1310740891722844</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0838388426995501</v>
+        <v>0.08255335403901426</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1009886013060659</v>
+        <v>0.1006426176536074</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.09137843242436591</v>
+        <v>0.08970082574048228</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.09415386631427404</v>
+        <v>0.0940985460109601</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04123207243989916</v>
+        <v>0.04116497483673844</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05757039084846599</v>
+        <v>0.05740144074019898</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05420582065649936</v>
+        <v>0.05385231826505241</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.07696534319991016</v>
+        <v>0.07798182983313365</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1008990507404967</v>
+        <v>0.1013142466602872</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1426882316862426</v>
+        <v>0.1431127855073112</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1395190811798443</v>
+        <v>0.139861550751027</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1653220113849807</v>
+        <v>0.165717617339906</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.07337747778820732</v>
+        <v>0.07340080495918712</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1039576532284381</v>
+        <v>0.10390709187417</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1004240094265984</v>
+        <v>0.1002431932222993</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.125672897694498</v>
+        <v>0.1260025221395932</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05672940171781792</v>
+        <v>0.05700930614953192</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07598377222975652</v>
+        <v>0.07543317870473135</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.07119791072076952</v>
+        <v>0.07089705446904664</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09495721179838026</v>
+        <v>0.09622061590542347</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1211741099538679</v>
+        <v>0.1237277187907336</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1676280406333609</v>
+        <v>0.1685784095522427</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.163680713229154</v>
+        <v>0.1659504445911594</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1861651292177103</v>
+        <v>0.1853988011128129</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.08705281204146359</v>
+        <v>0.08680190958132876</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1196460330965012</v>
+        <v>0.1196738009863052</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1157910810024288</v>
+        <v>0.1148988197709046</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1394329792649831</v>
+        <v>0.1397502797632937</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>42377</v>
+        <v>42670</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>65840</v>
+        <v>67792</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>71791</v>
+        <v>71933</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>86653</v>
+        <v>84825</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>133342</v>
+        <v>136447</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>226324</v>
+        <v>221858</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>239634</v>
+        <v>239740</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>155314</v>
+        <v>153055</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>186514</v>
+        <v>188423</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>301922</v>
+        <v>302578</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>321371</v>
+        <v>321999</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>250938</v>
+        <v>250244</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>70230</v>
+        <v>71871</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>106193</v>
+        <v>102980</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>108560</v>
+        <v>107765</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>121018</v>
+        <v>122986</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>178715</v>
+        <v>181272</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>281441</v>
+        <v>279720</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>299562</v>
+        <v>300976</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>192066</v>
+        <v>191675</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>238947</v>
+        <v>242871</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>374178</v>
+        <v>370931</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>396663</v>
+        <v>392924</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>302557</v>
+        <v>301492</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>30607</v>
+        <v>29320</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>43650</v>
+        <v>41796</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>43503</v>
+        <v>43941</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>64257</v>
+        <v>64098</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>85200</v>
+        <v>85886</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>127303</v>
+        <v>130344</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>111214</v>
+        <v>110138</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>200915</v>
+        <v>198509</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>123934</v>
+        <v>124570</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>183931</v>
+        <v>183221</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>167016</v>
+        <v>163608</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>275023</v>
+        <v>273913</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>54918</v>
+        <v>54602</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>74304</v>
+        <v>74228</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>72447</v>
+        <v>72732</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>97721</v>
+        <v>94639</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>126604</v>
+        <v>126500</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>175891</v>
+        <v>177222</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>156133</v>
+        <v>154379</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>244293</v>
+        <v>245373</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>169647</v>
+        <v>171960</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>239235</v>
+        <v>242210</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>217958</v>
+        <v>217466</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>329159</v>
+        <v>329787</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>27593</v>
+        <v>29272</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>36823</v>
+        <v>35975</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>26371</v>
+        <v>26890</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>53877</v>
+        <v>53675</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>61466</v>
+        <v>61679</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>84779</v>
+        <v>85378</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>67851</v>
+        <v>70561</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>132872</v>
+        <v>132570</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>98759</v>
+        <v>97004</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>129864</v>
+        <v>130855</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>104441</v>
+        <v>103218</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>192121</v>
+        <v>193670</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>53276</v>
+        <v>54035</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>65840</v>
+        <v>64490</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>50115</v>
+        <v>51480</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>82559</v>
+        <v>81311</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>93828</v>
+        <v>93898</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>122877</v>
+        <v>126096</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>107521</v>
+        <v>107981</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>170178</v>
+        <v>168954</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>138398</v>
+        <v>136466</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>178622</v>
+        <v>179300</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>150060</v>
+        <v>150047</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>245001</v>
+        <v>242316</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>13450</v>
+        <v>13342</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>24109</v>
+        <v>24293</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>17534</v>
+        <v>17510</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>40622</v>
+        <v>40692</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>19779</v>
+        <v>19666</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>31657</v>
+        <v>31508</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>34243</v>
+        <v>35129</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>90091</v>
+        <v>89313</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>37610</v>
+        <v>37002</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>61434</v>
+        <v>60089</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>57306</v>
+        <v>57295</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>136195</v>
+        <v>137121</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>31365</v>
+        <v>31480</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>50067</v>
+        <v>51173</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>37552</v>
+        <v>38555</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>67726</v>
+        <v>67196</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>39780</v>
+        <v>41350</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>56489</v>
+        <v>55345</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>59938</v>
+        <v>59421</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>120706</v>
+        <v>119323</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>66095</v>
+        <v>65082</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>96521</v>
+        <v>96190</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>91049</v>
+        <v>89378</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>177600</v>
+        <v>177496</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>133214</v>
+        <v>132997</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>196266</v>
+        <v>195690</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>182526</v>
+        <v>181336</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>267938</v>
+        <v>271477</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>334477</v>
+        <v>335854</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>505505</v>
+        <v>507009</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>492055</v>
+        <v>493263</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>611264</v>
+        <v>612727</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>480314</v>
+        <v>480467</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>722700</v>
+        <v>722348</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>692331</v>
+        <v>691084</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>902168</v>
+        <v>904534</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>183283</v>
+        <v>184187</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>259040</v>
+        <v>257163</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>239743</v>
+        <v>238730</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>330573</v>
+        <v>334971</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>401688</v>
+        <v>410154</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>593860</v>
+        <v>597226</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>577268</v>
+        <v>585273</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>688330</v>
+        <v>685496</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>569830</v>
+        <v>568188</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>831763</v>
+        <v>831956</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>798272</v>
+        <v>792121</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1000948</v>
+        <v>1003225</v>
       </c>
     </row>
     <row r="24">
